--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43552,6 +43552,41 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43587,6 +43587,43 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43624,6 +43624,43 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43661,6 +43661,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43698,6 +43698,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43735,6 +43735,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43772,6 +43772,41 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43807,6 +43807,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43844,6 +43844,80 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43918,6 +43918,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43955,6 +43955,43 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43992,6 +43992,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44029,6 +44029,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44066,6 +44066,80 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44140,6 +44140,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44177,6 +44177,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1683"/>
+  <dimension ref="A1:I1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60839,6 +60839,43 @@
         </is>
       </c>
     </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1684" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1684"/>
+  <dimension ref="A1:I1685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60876,6 +60876,43 @@
         </is>
       </c>
     </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1685" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1685"/>
+  <dimension ref="A1:I1686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60913,6 +60913,43 @@
         </is>
       </c>
     </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1686" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1686"/>
+  <dimension ref="A1:I1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60950,6 +60950,43 @@
         </is>
       </c>
     </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1687" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1687"/>
+  <dimension ref="A1:I1688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60987,6 +60987,43 @@
         </is>
       </c>
     </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1688" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1688"/>
+  <dimension ref="A1:I1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61024,6 +61024,43 @@
         </is>
       </c>
     </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1689" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1689"/>
+  <dimension ref="A1:I1690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61061,6 +61061,43 @@
         </is>
       </c>
     </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1690" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1690"/>
+  <dimension ref="A1:I1691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61098,6 +61098,41 @@
         </is>
       </c>
     </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1691" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>14200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1691"/>
+  <dimension ref="A1:I1692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61133,6 +61133,43 @@
         <v>14200</v>
       </c>
     </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1692" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1692"/>
+  <dimension ref="A1:I1693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61170,6 +61170,43 @@
         </is>
       </c>
     </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1693" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1693"/>
+  <dimension ref="A1:I1694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61207,6 +61207,43 @@
         </is>
       </c>
     </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1694" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1694"/>
+  <dimension ref="A1:I1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61244,6 +61244,43 @@
         </is>
       </c>
     </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1695" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1695"/>
+  <dimension ref="A1:I1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61281,6 +61281,43 @@
         </is>
       </c>
     </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1696" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1696"/>
+  <dimension ref="A1:I1697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61318,6 +61318,43 @@
         </is>
       </c>
     </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1697" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7218.xlsx
+++ b/data/7218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1697"/>
+  <dimension ref="A1:I1698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61355,6 +61355,43 @@
         </is>
       </c>
     </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>TOCEAN</t>
+        </is>
+      </c>
+      <c r="E1698" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
